--- a/data/trans_orig/IP16B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA6592C1-05AD-49A4-AE6D-90B4E502F504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD83C30A-3E93-46CC-9A27-85112803103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8C42223D-71FF-4A2E-BE2E-F22F430D68C6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{91A06FEF-EB05-4FBD-B0B2-0F3A7BA8E9F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -88,18 +88,18 @@
     <t>81,26%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>69,43%</t>
   </si>
   <si>
@@ -112,10 +112,10 @@
     <t>73,58%</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
     <t>—%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAF7610-80CA-4337-87F4-1C569CD6E92B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7469C597-9688-410E-901C-3A73F31657AA}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -738,16 +738,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>642</v>
+        <v>1295</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>793</v>
+        <v>527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -768,16 +768,16 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>1435</v>
+        <v>1821</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>642</v>
+        <v>1295</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>793</v>
+        <v>527</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -819,10 +819,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1435</v>
+        <v>1821</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -836,22 +836,22 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1295</v>
+        <v>642</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>527</v>
+        <v>793</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -872,16 +872,16 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1821</v>
+        <v>1435</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -893,10 +893,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>1295</v>
+        <v>642</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>527</v>
+        <v>793</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -923,10 +923,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1821</v>
+        <v>1435</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1058,7 +1058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8C53A5F-EB6C-4D33-82CA-A27AE40D5E60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79C1477-33B2-48C5-A09F-A1CF06A4C0CE}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1200,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1280,44 +1280,46 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1899</v>
+        <v>1416</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1730</v>
+      </c>
       <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="7">
+        <v>4</v>
+      </c>
+      <c r="N6" s="7">
+        <v>3146</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="7">
-        <v>3</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1899</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1329,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1899</v>
+        <v>1416</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1344,23 +1346,25 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1730</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1899</v>
+        <v>3146</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1374,52 +1378,50 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>1416</v>
+        <v>1899</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>3146</v>
+        <v>1899</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1431,10 +1433,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>1416</v>
+        <v>1899</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1446,25 +1448,23 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1730</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9" s="7">
-        <v>3146</v>
+        <v>1899</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1596,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B0CF1C7-0C63-4C15-8A91-A5FA80C6ACAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A69E0D7-7EE4-4F2A-9407-3ADAAB805CF4}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1718,13 +1718,13 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -1767,13 +1767,13 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1814,25 +1814,23 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -1844,16 +1842,16 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>3339</v>
+        <v>564</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1865,25 +1863,23 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1895,10 +1891,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>3339</v>
+        <v>564</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1912,29 +1908,31 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2799</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -1946,16 +1944,16 @@
         <v>13</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>564</v>
+        <v>3339</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1967,23 +1965,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2799</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1995,10 +1995,10 @@
         <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>564</v>
+        <v>3339</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2027,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2042,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>

--- a/data/trans_orig/IP16B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD83C30A-3E93-46CC-9A27-85112803103D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D407BCE3-AB68-4EB7-B7D2-A0513E60D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{91A06FEF-EB05-4FBD-B0B2-0F3A7BA8E9F8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E336F1D0-5D22-483C-B85A-9D9AEB017D07}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="30">
   <si>
     <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2007 (Tasa respuesta: 0,67%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
   </si>
   <si>
     <t>Sí</t>
@@ -82,37 +82,40 @@
     <t>100%</t>
   </si>
   <si>
-    <t>76,75%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>12-15</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
     <t>87,39%</t>
   </si>
   <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
     <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2012 (Tasa respuesta: 0,62%)</t>
   </si>
   <si>
     <t>73,58%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
   </si>
   <si>
     <t>—%</t>
@@ -135,7 +138,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -231,39 +234,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -315,7 +318,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -426,13 +429,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -441,6 +437,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -505,19 +508,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7469C597-9688-410E-901C-3A73F31657AA}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1F3D14-6C3C-44FE-8F40-52F7F76F7765}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -649,10 +672,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>3877</v>
+        <v>1562</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -664,10 +687,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>5213</v>
+        <v>2898</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -700,10 +723,10 @@
         <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>3877</v>
+        <v>1562</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -715,10 +738,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>5213</v>
+        <v>2898</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -738,46 +761,46 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1295</v>
+        <v>647</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>527</v>
+        <v>2315</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>1821</v>
+        <v>2962</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -789,10 +812,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1295</v>
+        <v>647</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -804,10 +827,10 @@
         <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="7">
-        <v>527</v>
+        <v>2315</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -819,10 +842,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>1821</v>
+        <v>2962</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -845,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
@@ -860,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>793</v>
+        <v>527</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
@@ -875,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1435</v>
+        <v>1174</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
@@ -896,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -911,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>793</v>
+        <v>527</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -926,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1435</v>
+        <v>1174</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -940,52 +963,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3272</v>
+        <v>642</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>5197</v>
+        <v>793</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>8469</v>
+        <v>1435</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -997,55 +1020,165 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>642</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>793</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1435</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>3272</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>9</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>5197</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>14</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>8469</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>13</v>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3272</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5197</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>14</v>
+      </c>
+      <c r="N13" s="7">
+        <v>8469</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1058,8 +1191,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E79C1477-33B2-48C5-A09F-A1CF06A4C0CE}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A152CBC-0401-4B56-BEF1-6A955F415EB4}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1075,7 +1208,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1185,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -1200,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1215,7 +1348,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1319,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1384,47 +1517,43 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>3</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1433,97 +1562,91 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1899</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>5582</v>
+        <v>1899</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>3501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>9083</v>
+        <v>1899</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1535,55 +1658,163 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1899</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1899</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <v>8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>5582</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>3501</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
-      <c r="N11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
+        <v>13</v>
+      </c>
+      <c r="N12" s="7">
         <v>9083</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>13</v>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5582</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3501</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>13</v>
+      </c>
+      <c r="N13" s="7">
+        <v>9083</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1596,8 +1827,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A69E0D7-7EE4-4F2A-9407-3ADAAB805CF4}">
-  <dimension ref="A1:Q11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267DEE94-59B4-49F2-AE25-7E0C16FA7846}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1613,7 +1844,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1718,40 +1949,40 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1173</v>
+        <v>613</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1173</v>
+        <v>613</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1767,19 +1998,19 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1173</v>
+        <v>613</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -1791,10 +2022,10 @@
         <v>13</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1173</v>
+        <v>613</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>13</v>
@@ -1818,40 +2049,40 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>564</v>
+        <v>1124</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>564</v>
+        <v>1124</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1867,19 +2098,19 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>564</v>
+        <v>1124</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1891,10 +2122,10 @@
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>564</v>
+        <v>1124</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -1923,37 +2154,35 @@
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>3339</v>
+        <v>2799</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -1980,25 +2209,23 @@
         <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>540</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>3339</v>
+        <v>2799</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -2012,52 +2239,50 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2799</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>2277</v>
+        <v>540</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>5075</v>
+        <v>540</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2069,55 +2294,163 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>540</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>540</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>2799</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I12" s="7">
         <v>2277</v>
       </c>
-      <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="7">
         <v>8</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N12" s="7">
         <v>5075</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>13</v>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2799</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2277</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>8</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5075</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D407BCE3-AB68-4EB7-B7D2-A0513E60D457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D02ADDFD-6E90-49EC-BFA6-0C459AD1039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E336F1D0-5D22-483C-B85A-9D9AEB017D07}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83CAC73C-1C86-42F8-BCD1-7669949ABFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -127,7 +127,7 @@
     <t>86,51%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2015 (Tasa respuesta: 0,38%)</t>
+    <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2016 (Tasa respuesta: 0,38%)</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1F3D14-6C3C-44FE-8F40-52F7F76F7765}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3646B422-4314-4BD5-B3CB-A88CD9E53950}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A152CBC-0401-4B56-BEF1-6A955F415EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C762F4ED-5B8D-48D0-91FE-56CB28A81C0A}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1827,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267DEE94-59B4-49F2-AE25-7E0C16FA7846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08805EC4-1500-42EC-87CA-31F561E686D5}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B09-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16B09-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D02ADDFD-6E90-49EC-BFA6-0C459AD1039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F925C5B-6E9E-458B-8DFC-36DA5E5E9961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83CAC73C-1C86-42F8-BCD1-7669949ABFE6}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{3B708894-179D-489C-8EE5-62C60DE8D4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido medicamentos para los vómitos recetados por el médico en 2007 (Tasa respuesta: 0,67%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -76,25 +76,25 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>43,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
     <t>69,43%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>63,75%</t>
+  </si>
+  <si>
     <t>22,85%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -539,7 +539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3646B422-4314-4BD5-B3CB-A88CD9E53950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2A629-83FB-489F-BF7E-88B47C9D8782}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -657,10 +657,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>1335</v>
+        <v>1562</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -672,10 +672,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1562</v>
+        <v>1335</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -708,25 +708,25 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1562</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>1335</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1562</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -761,10 +761,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>647</v>
+        <v>2315</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
@@ -776,10 +776,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>2315</v>
+        <v>647</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
@@ -812,25 +812,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2315</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>647</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>4</v>
-      </c>
-      <c r="I7" s="7">
-        <v>2315</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -868,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -883,13 +883,13 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>527</v>
+        <v>647</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>647</v>
+        <v>527</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -934,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="7">
-        <v>527</v>
+        <v>647</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -972,13 +972,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>642</v>
+        <v>793</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -987,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>793</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>642</v>
+        <v>793</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>793</v>
+        <v>642</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -1073,31 +1073,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5197</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>3272</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5197</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -1124,25 +1124,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5197</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3272</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5197</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1191,7 +1191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C762F4ED-5B8D-48D0-91FE-56CB28A81C0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0077BDBD-7151-42B6-BB61-BC3E49F842F5}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1312,28 +1312,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
+        <v>1771</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
         <v>2267</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1771</v>
-      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -1363,22 +1363,22 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
+        <v>1771</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
         <v>2267</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1771</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>13</v>
@@ -1416,13 +1416,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>1416</v>
+        <v>1730</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
@@ -1431,13 +1431,13 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1730</v>
+        <v>1416</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>13</v>
@@ -1452,7 +1452,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -1467,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>1416</v>
+        <v>1730</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -1482,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>1730</v>
+        <v>1416</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -1609,32 +1609,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
         <v>1899</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1646,7 +1646,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -1658,32 +1658,32 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
         <v>1899</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1709,31 +1709,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3501</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
         <v>8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>5582</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3501</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -1760,25 +1760,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3501</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5582</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3501</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
@@ -1827,7 +1827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08805EC4-1500-42EC-87CA-31F561E686D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730EA6F6-D19F-4091-9E29-B9EC6A3FCD6A}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1945,32 +1945,32 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>613</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>613</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1994,32 +1994,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>613</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>613</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2045,32 +2045,32 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1124</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1124</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2082,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>13</v>
@@ -2094,32 +2094,32 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1124</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1124</v>
-      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2145,32 +2145,32 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>2799</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
@@ -2182,7 +2182,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>13</v>
@@ -2194,32 +2194,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>2799</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -2245,32 +2245,32 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>540</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>540</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2282,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2294,32 +2294,32 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>540</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>540</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2348,13 +2348,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>2799</v>
+        <v>2277</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -2363,13 +2363,13 @@
         <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>2277</v>
+        <v>2799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>13</v>
@@ -2399,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>2799</v>
+        <v>2277</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>13</v>
@@ -2414,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2277</v>
+        <v>2799</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>13</v>
